--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_8_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_8_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.97000000000046</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.323663814754285e-16</v>
+        <v>1.329608412724738e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.85325479186008</v>
+        <v>59.6823584242938</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.375607369267314, 64.33090221445285]</t>
+          <t>[53.81119771729911, 65.55351913128848]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 1.7673424137311953]</t>
+          <t>[1.46544762419704, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.27012079369484</v>
+        <v>54.34120132165868</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.702141766383505, 56.83809982100617]</t>
+          <t>[50.30761438585791, 58.37478825745945]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.34632632632667</v>
+        <v>18.53901901901934</v>
       </c>
       <c r="X2" t="n">
-        <v>17.94640640640674</v>
+        <v>18.09289289289321</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.7462462462466</v>
+        <v>18.98514514514548</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.64000000000057</v>
+        <v>25.78000000000059</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.323663814754285e-16</v>
+        <v>1.329608412724738e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.25449454370703</v>
+        <v>59.03825967883289</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.584475771191556, 62.92451331622251]</t>
+          <t>[52.77603306738779, 65.300486290278]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.207605648468503</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.081816152829272, 2.333395144107734]</t>
+          <t>[2.3837109423634257, 2.6101320345140437]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.46264985403915</v>
+        <v>54.74759334609768</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.98513919799316, 55.940160510085136]</t>
+          <t>[51.34661140654389, 58.14857528565147]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.63135135135172</v>
+        <v>15.53509509509545</v>
       </c>
       <c r="X3" t="n">
-        <v>16.1180380380384</v>
+        <v>15.07059059059093</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.14466466466505</v>
+        <v>15.99959959959997</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_8_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_8_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.76000000000043</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.329608412724738e-16</v>
+        <v>1.345724878333523e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>59.6823584242938</v>
+        <v>56.0298171633424</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.81119771729911, 65.55351913128848]</t>
+          <t>[50.5803007177572, 61.479333608927604]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.6918687163476562]</t>
+          <t>[1.528342372016656, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.34120132165868</v>
+        <v>52.84431357972434</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.30761438585791, 58.37478825745945]</t>
+          <t>[49.148838802300965, 56.53978835714772]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.53901901901934</v>
+        <v>18.26900900900932</v>
       </c>
       <c r="X2" t="n">
-        <v>18.09289289289321</v>
+        <v>17.82342342342373</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.98514514514548</v>
+        <v>18.71459459459492</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.78000000000059</v>
+        <v>25.79000000000059</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.329608412724738e-16</v>
+        <v>1.345724878333523e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>59.03825967883289</v>
+        <v>59.23126753722</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.77603306738779, 65.300486290278]</t>
+          <t>[52.586094426392485, 65.87644064804752]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.496921488438735</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.3837109423634257, 2.6101320345140437]</t>
+          <t>[2.3585530432355797, 2.584974135386196]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.74759334609768</v>
+        <v>54.23204967063697</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.34661140654389, 58.14857528565147]</t>
+          <t>[50.774139843220695, 57.68995949805324]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.53509509509545</v>
+        <v>15.64438438438474</v>
       </c>
       <c r="X3" t="n">
-        <v>15.07059059059093</v>
+        <v>15.17969969970005</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.99959959959997</v>
+        <v>16.10906906906944</v>
       </c>
     </row>
   </sheetData>
